--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H2">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I2">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J2">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N2">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q2">
-        <v>1284.252113925042</v>
+        <v>2666.032328360962</v>
       </c>
       <c r="R2">
-        <v>1284.252113925042</v>
+        <v>23994.29095524866</v>
       </c>
       <c r="S2">
-        <v>0.02072665927988335</v>
+        <v>0.03627290972095432</v>
       </c>
       <c r="T2">
-        <v>0.02072665927988335</v>
+        <v>0.03627290972095432</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H3">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I3">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J3">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N3">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q3">
-        <v>8347.723259901202</v>
+        <v>9431.365394110739</v>
       </c>
       <c r="R3">
-        <v>8347.723259901202</v>
+        <v>84882.28854699666</v>
       </c>
       <c r="S3">
-        <v>0.1347246493851814</v>
+        <v>0.1283191737199345</v>
       </c>
       <c r="T3">
-        <v>0.1347246493851814</v>
+        <v>0.1283191737199345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H4">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I4">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J4">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N4">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q4">
-        <v>2379.537863368518</v>
+        <v>3688.254267523601</v>
       </c>
       <c r="R4">
-        <v>2379.537863368518</v>
+        <v>33194.28840771241</v>
       </c>
       <c r="S4">
-        <v>0.03840357356849915</v>
+        <v>0.05018082963609685</v>
       </c>
       <c r="T4">
-        <v>0.03840357356849915</v>
+        <v>0.05018082963609686</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H5">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I5">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J5">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N5">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q5">
-        <v>2414.325248879783</v>
+        <v>2729.319422675341</v>
       </c>
       <c r="R5">
-        <v>2414.325248879783</v>
+        <v>24563.87480407807</v>
       </c>
       <c r="S5">
-        <v>0.03896501028245267</v>
+        <v>0.0371339671935688</v>
       </c>
       <c r="T5">
-        <v>0.03896501028245267</v>
+        <v>0.0371339671935688</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H6">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I6">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J6">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N6">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q6">
-        <v>2340.208483495238</v>
+        <v>2768.071952684936</v>
       </c>
       <c r="R6">
-        <v>2340.208483495238</v>
+        <v>24912.64757416442</v>
       </c>
       <c r="S6">
-        <v>0.03776883320289352</v>
+        <v>0.03766121774771373</v>
       </c>
       <c r="T6">
-        <v>0.03776883320289352</v>
+        <v>0.03766121774771373</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H7">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I7">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J7">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N7">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q7">
-        <v>807.5311792046405</v>
+        <v>980.3913273622783</v>
       </c>
       <c r="R7">
-        <v>807.5311792046405</v>
+        <v>8823.521946260506</v>
       </c>
       <c r="S7">
-        <v>0.01303281764364993</v>
+        <v>0.0133387902803419</v>
       </c>
       <c r="T7">
-        <v>0.01303281764364993</v>
+        <v>0.0133387902803419</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H8">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I8">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J8">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N8">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q8">
-        <v>2958.556080787087</v>
+        <v>5561.992072472354</v>
       </c>
       <c r="R8">
-        <v>2958.556080787087</v>
+        <v>50057.92865225119</v>
       </c>
       <c r="S8">
-        <v>0.04774840016380157</v>
+        <v>0.07567411473869338</v>
       </c>
       <c r="T8">
-        <v>0.04774840016380157</v>
+        <v>0.07567411473869338</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H9">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I9">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J9">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N9">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q9">
-        <v>19230.80923404267</v>
+        <v>19676.1228273942</v>
       </c>
       <c r="R9">
-        <v>19230.80923404267</v>
+        <v>177085.1054465478</v>
       </c>
       <c r="S9">
-        <v>0.310367743489423</v>
+        <v>0.2677050159460208</v>
       </c>
       <c r="T9">
-        <v>0.310367743489423</v>
+        <v>0.2677050159460208</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H10">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I10">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J10">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N10">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q10">
-        <v>5481.786744828319</v>
+        <v>7694.595740270085</v>
       </c>
       <c r="R10">
-        <v>5481.786744828319</v>
+        <v>69251.36166243076</v>
       </c>
       <c r="S10">
-        <v>0.08847104464386267</v>
+        <v>0.104689419425625</v>
       </c>
       <c r="T10">
-        <v>0.08847104464386267</v>
+        <v>0.104689419425625</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H11">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I11">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J11">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N11">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q11">
-        <v>5561.927108097399</v>
+        <v>5694.024348721153</v>
       </c>
       <c r="R11">
-        <v>5561.927108097399</v>
+        <v>51246.21913849038</v>
       </c>
       <c r="S11">
-        <v>0.08976443710631904</v>
+        <v>0.07747049011857075</v>
       </c>
       <c r="T11">
-        <v>0.08976443710631904</v>
+        <v>0.07747049011857075</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H12">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I12">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J12">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N12">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q12">
-        <v>5391.182902548429</v>
+        <v>5774.871554664124</v>
       </c>
       <c r="R12">
-        <v>5391.182902548429</v>
+        <v>51973.84399197711</v>
       </c>
       <c r="S12">
-        <v>0.08700878116146581</v>
+        <v>0.07857046305256878</v>
       </c>
       <c r="T12">
-        <v>0.08700878116146581</v>
+        <v>0.07857046305256878</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H13">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I13">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J13">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N13">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q13">
-        <v>1860.32497416664</v>
+        <v>2045.334834353648</v>
       </c>
       <c r="R13">
-        <v>1860.32497416664</v>
+        <v>18408.01350918283</v>
       </c>
       <c r="S13">
-        <v>0.03002395049330654</v>
+        <v>0.02782796180166503</v>
       </c>
       <c r="T13">
-        <v>0.03002395049330654</v>
+        <v>0.02782796180166503</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H14">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I14">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J14">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N14">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q14">
-        <v>2.20762751779333</v>
+        <v>4.75406251364</v>
       </c>
       <c r="R14">
-        <v>2.20762751779333</v>
+        <v>42.78656262276</v>
       </c>
       <c r="S14">
-        <v>3.562909718587208E-05</v>
+        <v>6.468176643268716E-05</v>
       </c>
       <c r="T14">
-        <v>3.562909718587208E-05</v>
+        <v>6.468176643268717E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H15">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I15">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J15">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N15">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q15">
-        <v>14.34972415436255</v>
+        <v>16.81798836256</v>
       </c>
       <c r="R15">
-        <v>14.34972415436255</v>
+        <v>151.36189526304</v>
       </c>
       <c r="S15">
-        <v>0.0002315914765355367</v>
+        <v>0.0002288184457006346</v>
       </c>
       <c r="T15">
-        <v>0.0002315914765355367</v>
+        <v>0.0002288184457006346</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H16">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I16">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J16">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N16">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q16">
-        <v>4.090422129614729</v>
+        <v>6.576886246831999</v>
       </c>
       <c r="R16">
-        <v>4.090422129614729</v>
+        <v>59.191976221488</v>
       </c>
       <c r="S16">
-        <v>6.601568716309525E-05</v>
+        <v>8.948233618119257E-05</v>
       </c>
       <c r="T16">
-        <v>6.601568716309525E-05</v>
+        <v>8.948233618119258E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H17">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I17">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J17">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N17">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q17">
-        <v>4.150221594761832</v>
+        <v>4.866915909856</v>
       </c>
       <c r="R17">
-        <v>4.150221594761832</v>
+        <v>43.802243188704</v>
       </c>
       <c r="S17">
-        <v>6.698079605860266E-05</v>
+        <v>6.621720207204518E-05</v>
       </c>
       <c r="T17">
-        <v>6.698079605860266E-05</v>
+        <v>6.621720207204519E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H18">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I18">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J18">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N18">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q18">
-        <v>4.02281498275893</v>
+        <v>4.936019329296</v>
       </c>
       <c r="R18">
-        <v>4.02281498275893</v>
+        <v>44.424173963664</v>
       </c>
       <c r="S18">
-        <v>6.492456939690952E-05</v>
+        <v>6.715739400748858E-05</v>
       </c>
       <c r="T18">
-        <v>6.492456939690952E-05</v>
+        <v>6.715739400748858E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H19">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I19">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J19">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N19">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O19">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P19">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q19">
-        <v>1.388144923693942</v>
+        <v>1.748231485616</v>
       </c>
       <c r="R19">
-        <v>1.388144923693942</v>
+        <v>15.734083370544</v>
       </c>
       <c r="S19">
-        <v>2.240339459249146E-05</v>
+        <v>2.378569913593834E-05</v>
       </c>
       <c r="T19">
-        <v>2.240339459249146E-05</v>
+        <v>2.378569913593834E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H20">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I20">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J20">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N20">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O20">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P20">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q20">
-        <v>5.257950807837255</v>
+        <v>11.03685066839722</v>
       </c>
       <c r="R20">
-        <v>5.257950807837255</v>
+        <v>99.33165601557501</v>
       </c>
       <c r="S20">
-        <v>8.485853651535511E-05</v>
+        <v>0.0001501627282008801</v>
       </c>
       <c r="T20">
-        <v>8.485853651535511E-05</v>
+        <v>0.0001501627282008801</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H21">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I21">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J21">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N21">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P21">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q21">
-        <v>34.17702628797169</v>
+        <v>39.04400195997778</v>
       </c>
       <c r="R21">
-        <v>34.17702628797169</v>
+        <v>351.3960176398</v>
       </c>
       <c r="S21">
-        <v>0.0005515860720722561</v>
+        <v>0.000531216198383356</v>
       </c>
       <c r="T21">
-        <v>0.0005515860720722561</v>
+        <v>0.000531216198383356</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H22">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I22">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J22">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N22">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O22">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P22">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q22">
-        <v>9.742240558000043</v>
+        <v>15.26864889997889</v>
       </c>
       <c r="R22">
-        <v>9.742240558000043</v>
+        <v>137.41784009981</v>
       </c>
       <c r="S22">
-        <v>0.0001572308882959045</v>
+        <v>0.0002077387874176208</v>
       </c>
       <c r="T22">
-        <v>0.0001572308882959045</v>
+        <v>0.0002077387874176209</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H23">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I23">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J23">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N23">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O23">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P23">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q23">
-        <v>9.884666145443678</v>
+        <v>11.29884681966444</v>
       </c>
       <c r="R23">
-        <v>9.884666145443678</v>
+        <v>101.68962137698</v>
       </c>
       <c r="S23">
-        <v>0.0001595295075402671</v>
+        <v>0.0001537273371671922</v>
       </c>
       <c r="T23">
-        <v>0.0001595295075402671</v>
+        <v>0.0001537273371671923</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H24">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I24">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J24">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N24">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O24">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P24">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q24">
-        <v>9.581219258183422</v>
+        <v>11.45927468927</v>
       </c>
       <c r="R24">
-        <v>9.581219258183422</v>
+        <v>103.13347220343</v>
       </c>
       <c r="S24">
-        <v>0.0001546321511928735</v>
+        <v>0.000155910050995912</v>
       </c>
       <c r="T24">
-        <v>0.0001546321511928735</v>
+        <v>0.000155910050995912</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H25">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I25">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J25">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N25">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O25">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P25">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q25">
-        <v>3.306172651003816</v>
+        <v>4.058627707392223</v>
       </c>
       <c r="R25">
-        <v>3.306172651003816</v>
+        <v>36.52764936653</v>
       </c>
       <c r="S25">
-        <v>5.335861495948015E-05</v>
+        <v>5.521997421228178E-05</v>
       </c>
       <c r="T25">
-        <v>5.335861495948015E-05</v>
+        <v>5.521997421228178E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H26">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I26">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J26">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N26">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O26">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P26">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q26">
-        <v>10.12871470273851</v>
+        <v>18.88638367231833</v>
       </c>
       <c r="R26">
-        <v>10.12871470273851</v>
+        <v>169.977453050865</v>
       </c>
       <c r="S26">
-        <v>0.0001634682289485874</v>
+        <v>0.0002569601585898533</v>
       </c>
       <c r="T26">
-        <v>0.0001634682289485874</v>
+        <v>0.0002569601585898533</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H27">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I27">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J27">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N27">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O27">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P27">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q27">
-        <v>65.83731216025753</v>
+        <v>66.81253767710666</v>
       </c>
       <c r="R27">
-        <v>65.83731216025753</v>
+        <v>601.31283909396</v>
       </c>
       <c r="S27">
-        <v>0.001062554246360871</v>
+        <v>0.0009090231658516582</v>
       </c>
       <c r="T27">
-        <v>0.001062554246360871</v>
+        <v>0.0009090231658516582</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H28">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I28">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J28">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N28">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O28">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P28">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q28">
-        <v>18.76707842727401</v>
+        <v>26.12788466085133</v>
       </c>
       <c r="R28">
-        <v>18.76707842727401</v>
+        <v>235.150961947662</v>
       </c>
       <c r="S28">
-        <v>0.0003028835506854856</v>
+        <v>0.0003554849622117001</v>
       </c>
       <c r="T28">
-        <v>0.0003028835506854856</v>
+        <v>0.0003554849622117002</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H29">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I29">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J29">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N29">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O29">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P29">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q29">
-        <v>19.04144161443739</v>
+        <v>19.33471444911066</v>
       </c>
       <c r="R29">
-        <v>19.04144161443739</v>
+        <v>174.012430041996</v>
       </c>
       <c r="S29">
-        <v>0.0003073115226059664</v>
+        <v>0.0002630599577628481</v>
       </c>
       <c r="T29">
-        <v>0.0003073115226059664</v>
+        <v>0.0002630599577628481</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H30">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I30">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J30">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N30">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O30">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P30">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q30">
-        <v>18.45689317326295</v>
+        <v>19.609240433754</v>
       </c>
       <c r="R30">
-        <v>18.45689317326295</v>
+        <v>176.483163903786</v>
       </c>
       <c r="S30">
-        <v>0.0002978774432367836</v>
+        <v>0.0002667950423494426</v>
       </c>
       <c r="T30">
-        <v>0.0002978774432367836</v>
+        <v>0.0002667950423494426</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H31">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I31">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J31">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N31">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O31">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P31">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q31">
-        <v>6.368884145910942</v>
+        <v>6.945169629267332</v>
       </c>
       <c r="R31">
-        <v>6.368884145910942</v>
+        <v>62.50652666340599</v>
       </c>
       <c r="S31">
-        <v>0.0001027879886309081</v>
+        <v>9.449304431878568E-05</v>
       </c>
       <c r="T31">
-        <v>0.0001027879886309081</v>
+        <v>9.449304431878568E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H32">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I32">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J32">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N32">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O32">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P32">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q32">
-        <v>267.6460472868733</v>
+        <v>538.7895570531193</v>
       </c>
       <c r="R32">
-        <v>267.6460472868733</v>
+        <v>4849.106013478075</v>
       </c>
       <c r="S32">
-        <v>0.00431956340158795</v>
+        <v>0.00733054312720799</v>
       </c>
       <c r="T32">
-        <v>0.00431956340158795</v>
+        <v>0.007330543127207991</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H33">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I33">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J33">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N33">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O33">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P33">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q33">
-        <v>1739.716921725585</v>
+        <v>1906.023842637755</v>
       </c>
       <c r="R33">
-        <v>1739.716921725585</v>
+        <v>17154.2145837398</v>
       </c>
       <c r="S33">
-        <v>0.02807744639006163</v>
+        <v>0.02593255529369</v>
       </c>
       <c r="T33">
-        <v>0.02807744639006163</v>
+        <v>0.02593255529369</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H34">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I34">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J34">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N34">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O34">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P34">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q34">
-        <v>495.9103408080575</v>
+        <v>745.3746385438676</v>
       </c>
       <c r="R34">
-        <v>495.9103408080575</v>
+        <v>6708.37174689481</v>
       </c>
       <c r="S34">
-        <v>0.008003541170654728</v>
+        <v>0.01014125248391589</v>
       </c>
       <c r="T34">
-        <v>0.008003541170654728</v>
+        <v>0.01014125248391589</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H35">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I35">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J35">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N35">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O35">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P35">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q35">
-        <v>503.1602461238281</v>
+        <v>551.5795090541088</v>
       </c>
       <c r="R35">
-        <v>503.1602461238281</v>
+        <v>4964.215581486979</v>
       </c>
       <c r="S35">
-        <v>0.008120548038435645</v>
+        <v>0.007504557811625731</v>
       </c>
       <c r="T35">
-        <v>0.008120548038435645</v>
+        <v>0.007504557811625732</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H36">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I36">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J36">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N36">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O36">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P36">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q36">
-        <v>487.713855903582</v>
+        <v>559.4111689542699</v>
       </c>
       <c r="R36">
-        <v>487.713855903582</v>
+        <v>5034.70052058843</v>
       </c>
       <c r="S36">
-        <v>0.007871257370561494</v>
+        <v>0.00761111206811459</v>
       </c>
       <c r="T36">
-        <v>0.007871257370561494</v>
+        <v>0.00761111206811459</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H37">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I37">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J37">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N37">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O37">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P37">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q37">
-        <v>168.2944694671102</v>
+        <v>198.1313592446144</v>
       </c>
       <c r="R37">
-        <v>168.2944694671102</v>
+        <v>1783.18223320153</v>
       </c>
       <c r="S37">
-        <v>0.002716119435982583</v>
+        <v>0.002695691582700427</v>
       </c>
       <c r="T37">
-        <v>0.002716119435982583</v>
+        <v>0.002695691582700427</v>
       </c>
     </row>
   </sheetData>
